--- a/output/cozi_result_20260102.xlsx
+++ b/output/cozi_result_20260102.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,535 +415,471 @@
       <c r="D1" t="str">
         <v>图片</v>
       </c>
-    </row>
-    <row r="2" xml:space="preserve">
+      <c r="E1" t="str">
+        <v>链接</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="str">
         <v>997651001481</v>
       </c>
-      <c r="B2" t="str" xml:space="preserve">
-        <v xml:space="preserve">26年AI归来考研英语一英二全套电子版资料PDF来啦！英一英二通用，大作文+小作文模板+历年主题词汇+答题卡全都有，备考冲刺必备！
-内容包括：2026考研英语作文模板PDF（英一英二通用）、大作文模板、小作文模板、历年主题词汇、答题卡等，数字资源，拍下自动发网盘链接，秒下不用等！
-需要具体资料内容可以私聊，欢迎咨询，喜欢直接拍，有问题随时问我～
-免责声明：资料只限学习用途，不得用于商业，标价为收集整理资料的辛苦费，虚拟商品售出不退不换，介意勿拍！
-学习资料定制，喜欢就拍，细节私聊！
-</v>
+      <c r="B2" t="str">
+        <v>26考研英语全套资料，英一英二通用</v>
       </c>
       <c r="C2" t="str">
-        <v>✅ 2026考研英语作文模板PDF（英一英二通用），备考冲刺必备✅ 包含大作文模板、小作文模板、历年主题词汇、答题卡等全套资料✅ 数字资源，拍下自动发网盘链接，秒下不用等✅ 资料只限学习用途，不得用于商业✅ 标价为收集整理资料的辛苦费，虚拟商品售出不退不换，介意勿拍✅ 需要具体资料内容可以私聊，欢迎咨询，喜欢直接拍，有问题随时问我</v>
+        <v>✅ 包含2026考研英语作文模板PDF（英一英二通用）、大作文模板、小作文模板、历年主题词汇、答题卡，考研冲刺一站式备齐✅ 数字资源，拍下自动发网盘链接，秒下不用等，节省备考时间✅ 可私聊获取具体资料内容，有问题随时咨询，支持学习资料定制免责声明：资料只限学习用途，不得用于商业，标价为收集整理资料的辛苦费，虚拟商品售出不退不换，介意勿拍。</v>
       </c>
       <c r="D2" t="str">
-        <v>https://s.coze.cn/t/hRY1fcnw1ng/</v>
-      </c>
-    </row>
-    <row r="3" xml:space="preserve">
+        <v>https://s.coze.cn/t/UTfoSuF7mPg/</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="str">
         <v>950132739399</v>
       </c>
-      <c r="B3" t="str" xml:space="preserve">
-        <v xml:space="preserve">【BEC商务英语】2025最新整理版初级➕中级➕高级全部课程
-[号外][号外][号外][号外]
-35个学习文档资料
-真题+解析+音频+视频
-BEC高级、中级、初级课程
-高级、中级、初级全程通关
-格式：PDF、Word、MP3等
-适用对象：
-准备参加BEC考试的考生
-商务英语学习者
-希望提升商务英语水平的专业人士
-发货方式：百度网盘自动发货
-价格：标价即卖价，直接拍即可
-特点：
-最新整理：2025年最新整理版，确保内容的时效性和准确性。
-多种资源：包括讲义、笔记、真题、解析、音频等多种学习资源。
-[火][火][火]内容概述
-1. 35个学习文档资料：
-包括词汇表、语法讲解、写作模板、口语练习材料等。
-详细的备考指南和复习计划。
-[钉子][钉子][钉子]真题+解析+音频：
-近年的BEC考试真题及详细解析。
-配套的听力音频文件，方便进行听力训练。
-[钉子][钉子][钉子]
-4. 高级、中级、初级全程通关课。
-全面的备考指导和技巧分享。
-注意事项
-虚拟商品：由于是电子文件，具有可复制性，一经售出概不退换，请谨慎购买。
-安全提示：请从信誉良好的卖家处购买，并确保下载的文件来源可靠，以避免潜在的安全风险。
-链接失效：如果下载链接失效，可以联系卖家补发新的链接。
-[[号外][号外][号外]祝您学习顺利，取得优异成绩！火火火火火火666
-资料仅做分享，赚的是整理资料的辛苦费用</v>
+      <c r="B3" t="str">
+        <v>2025BEC商务英语初中高级全套课程</v>
       </c>
       <c r="C3" t="str">
-        <v>✅ 35个学习文档资料，包括词汇表、语法讲解、写作模板、口语练习材料等✅ 近年的BEC考试真题及详细解析，配套的听力音频文件，方便进行听力训练✅ 高级、中级、初级全程通关课，全面的备考指导和技巧分享✅ 2025年最新整理版，确保内容的时效性和准确性✅ 多种资源：包括讲义、笔记、真题、解析、音频等多种学习资源✅ 百度网盘自动发货，标价即卖价，直接拍即可✅ 虚拟商品，一经售出概不退换，请谨慎购买✅ 如果下载链接失效，可以联系卖家补发新的链接</v>
+        <v>✅ 2025最新整理版，包含35个学习文档资料，真题+解析+音频+视频，覆盖初、中、高级全程通关课程✅ 格式多样，有PDF、Word、MP3等，满足不同学习场景需求，助力BEC考试备考与商务英语水平提升✅ 百度网盘自动发货，标价即卖价，直接拍下即可获取✅ 资料只限学习用途，标价为整理辛苦费，虚拟商品售出不退不换，链接失效可联系补发适用于BEC考生、商务英语学习者和想要提升商务英语水平的专业人士，祝您学习顺利。</v>
       </c>
       <c r="D3" t="str">
-        <v>https://s.coze.cn/t/p-8X-PvCEZw/</v>
-      </c>
-    </row>
-    <row r="4" xml:space="preserve">
+        <v>https://s.coze.cn/t/64f4XJr-sTo/</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="str">
         <v>799657546298</v>
       </c>
-      <c r="B4" t="str" xml:space="preserve">
-        <v xml:space="preserve">2025年高考一二轮总复习资料电子版高三英语文数学物理化学模拟真题PPT讲义历史生物地理政/治
-包括新高考23+24+2025全套总复习资料。
-2025年一二轮九科已更新到蕞新内容，后续持续更新，免费更新2026版新资料。
-送老高考23-24一轮+二轮+专项复习
-送模拟试卷
-内容有：PPT课件、讲义、习题、知识梳理、难点突破、真题汇编与模拟题等
-直接拍，无需等待，佰度䋞盘24h-自动秒发货。
-收货自动送：2025某pin牌教辅，榀牌知识点、知识手册、高考前蕞后一课等
-</v>
+      <c r="B4" t="str">
+        <v>2025高考一二轮总复习资料，九科全含</v>
       </c>
       <c r="C4" t="str">
-        <v>✅ 新高考23+24+2025全套总复习资料，2025年一二轮九科已更新到最新内容，后续持续更新，免费更新2026版新资料✅ 送老高考23-24一轮+二轮+专项复习，送模拟试卷✅ 内容有：PPT课件、讲义、习题、知识梳理、难点突破、真题汇编与模拟题等✅ 直接拍，无需等待，百度网盘24h自动秒发货✅ 收货自动送：2025某品牌教辅，品牌知识点、知识手册、高考前最后一课等✅ 虚拟商品，一经售出概不退换，请谨慎购买</v>
+        <v>✅ 包含新高考23+24+2025全套总复习资料，2025年一二轮九科已更新至最新内容，后续持续免费更新2026版新资料✅ 赠送老高考23-24一轮+二轮+专项复习资料以及模拟试卷，资料涵盖PPT课件、讲义、习题、知识梳理等✅ 拍下百度网盘24h自动秒发货，收货自动赠送2025某品牌教辅、知识点手册、高考最后一课等虚拟商品，拍下后无法退换，资料仅限学习使用。</v>
       </c>
       <c r="D4" t="str">
-        <v>https://s.coze.cn/t/xRbXIRyi298/</v>
-      </c>
-    </row>
-    <row r="5" xml:space="preserve">
+        <v>https://s.coze.cn/t/s5sfBpI3NX0/</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="str">
         <v>959038414781</v>
       </c>
-      <c r="B5" t="str" xml:space="preserve">
-        <v xml:space="preserve">【0.1 自动秒发】黄夫人物理高一高二 高三同步课视频 包含500多个视频，一轮复习讲义网义，高一高二高三讲义等
-黄夫人全集包含
-1.高一高二高三同步课视频
-2.高三电子版讲义，专题讲解
-3.选修合集，黄夫人高一高二高三讲义
-4.高三一轮复习
-5.必修1-4（文案图片均来自真实资料）
-拍下后百度网盘24小时自动发货，仅收取整理费用，如有侵权联系删除
-</v>
+      <c r="B5" t="str">
+        <v>0.1元秒发黄夫人物理全套视频讲义</v>
       </c>
       <c r="C5" t="str">
-        <v>✅ 黄夫人全集包含高一高二高三同步课视频、高三电子版讲义、专题讲解、选修合集、高三一轮复习、必修1-4等✅ 包含500多个视频，一轮复习讲义网义，高一高二高三讲义等✅ 拍下后百度网盘24小时自动发货，仅收取整理费用，如有侵权联系删除✅ 文案图片均来自真实资料✅ 虚拟商品，一经售出概不退换，请谨慎购买</v>
+        <v>✅ 包含500多个视频，高一高二高三同步课视频、高三电子版讲义、专题讲解、选修合集、高三一轮复习、必修1-4等全套资料✅ 拍下百度网盘24小时自动发货，无需等待，快速获取学习资源✅ 仅收取整理费用，文案图片均来自真实资料，如有侵权联系删除虚拟商品，拍下后无法退换，资料仅限学习使用。</v>
       </c>
       <c r="D5" t="str">
-        <v>https://s.coze.cn/t/ULDsB5ThIF0/</v>
-      </c>
-    </row>
-    <row r="6" xml:space="preserve">
+        <v>https://s.coze.cn/t/Ro2GXCb-SWc/</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="str">
         <v>790614146039</v>
       </c>
-      <c r="B6" t="str" xml:space="preserve">
-        <v xml:space="preserve">《C语言》 重点 考点 题库 资料合集 全部发！就是标价！
-期末复习资料 抱佛脚必备
-【直接拍下发全部，网盘发货】
-内容包括
-①C语言常考知识点大总结[14页】
-②C语言程序设计知识点总结【11页】
-③C语言课件（精华版）【629张】
-④C语言学习笔记[110页】
-⑤C语言知识点总结【14页】
-⑥题库1-C语言分章习题库附答案【90页】
-⑦题库2-C语言分章习题集附答案【50页】
-⑧题库3-c语言10套卷含答案【32页】
-⑨题库4-C语言程序改错题库【80页】
-10-题库5-大学C语言期末试题与答案【55页】
-11-题库6-C语言程序填空题库【28页】
-12-题库7-C语言程序设计模拟试题及答案【6页】
-13-题库8-C语言程序模拟试题【8页】
-14-题库9-c语言经典程序题目【12页】
-15-题库10-C语言复习题库【18页】
---
-适用于考研初试学习，考研复试面试，保研面笔试、夏令营面试、九推复试面试、自考、期末考试等情况，也避免出现老师进行专业问答时你不懂你尴尬，他尴尬，最后导致结果尴尬的局面
-Tag：考研专业课资料&amp;保研资料&amp;自考资料&amp;期末复习资料
-马上涨价，想要赶紧！（标价就是实价，直接拍）
-</v>
+      <c r="B6" t="str">
+        <v>C语言考点题库合集，考研保研期末通用</v>
       </c>
       <c r="C6" t="str">
-        <v>✅ 15套C语言重点考点题库资料合集，包括常考知识点大总结、程序设计知识点总结、课件、学习笔记、分章习题库、模拟试题等✅ 适用于考研初试学习，考研复试面试，保研面笔试、夏令营面试、九推复试面试、自考、期末考试等情况✅ 直接拍下发全部，网盘发货，标价就是实价，直接拍✅ 马上涨价，想要赶紧✅ 虚拟商品，一经售出概不退换，请谨慎购买</v>
+        <v>✅ 包含15类C语言学习资料，涵盖知识点总结、课件、笔记、多套题库，满足考研初试复试、保研、自考、期末考试等多种场景需求✅ 拍下直接网盘发货，无需等待，助你快速掌握C语言重点考点，避免面试笔试尴尬✅ 标价即为实价，马上涨价，抓紧入手虚拟商品，拍下后无法退换，资料仅限学习使用。</v>
       </c>
       <c r="D6" t="str">
-        <v>https://s.coze.cn/t/6OCV78MF8QE/</v>
-      </c>
-    </row>
-    <row r="7" xml:space="preserve">
+        <v>https://s.coze.cn/t/n2ewglwIiNQ/</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="str">
         <v>942018152068</v>
       </c>
-      <c r="B7" t="str" xml:space="preserve">
-        <v xml:space="preserve">人教版1-6年级小学数学知识点考点归纳汇总（彩色版共92页）非实物
-1. 完整的 1-6 年级数学上册+下册知识点。
-2. 彩色高清手写字体，分单元呈现清晰。
-3. 知识点、复习要点清晰可见超详细。
-一年级上下册共9页
-二年级上下册共10页
-三年级上下册共15页
-四年级上下册共16页
-五年级上下册共19页
-六年级上下册共23页
-额外赠送1-6年级复习提纲、易错清单、预习要点等，赠送的东西太多，物超所值。
-[1]标价全套价格，拍下自动发货
-[2电孑资料，无实物，【度盘+夸盘】自动发送
-[3]电孑文档的可复制性，一经拍下概不退换</v>
+      <c r="B7" t="str">
+        <v>1-6年级小学数学知识点归纳92页</v>
       </c>
       <c r="C7" t="str">
-        <v>✅ 完整的1-6年级数学上册+下册知识点，彩色高清手写字体，分单元呈现清晰，知识点、复习要点清晰可见超详细✅ 一年级上下册共9页，二年级上下册共10页，三年级上下册共15页，四年级上下册共16页，五年级上下册共19页，六年级上下册共23页✅ 额外赠送1-6年级复习提纲、易错清单、预习要点等，赠送的东西太多，物超所值✅ 标价全套价格，拍下自动发货，【度盘+夸盘】自动发送✅ 电子资料，无实物，电子文档的可复制性，一经拍下概不退换</v>
+        <v>✅ 包含人教版1-6年级数学上下册知识点，彩色高清手写字体，分单元呈现，共92页，知识点超详细✅ 额外赠送1-6年级复习提纲、易错清单、预习要点等，物超所值✅ 拍下自动发货，度盘+夸盘双渠道发送，无需等待电子资料无实物，因可复制性，一经拍下概不退换，资料仅限学习使用。</v>
       </c>
       <c r="D7" t="str">
-        <v>https://s.coze.cn/t/W-9uqSitMXc/</v>
-      </c>
-    </row>
-    <row r="8" xml:space="preserve">
+        <v>https://s.coze.cn/t/tUlcD_XzFNQ/</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="str">
         <v>948726934630</v>
       </c>
-      <c r="B8" t="str" xml:space="preserve">
-        <v xml:space="preserve">2025新版七年级上册语文人教版复习预习全套资料
-还在为孩子七年级上册语文的复习和预习发愁吗？看这里，全套资料来袭，让孩子学习无忧！
-总共473个文件 ，内容超全，几乎都是按照课文或者单元编写。预习资料帮孩子在开学前抢占先机，早背晚默资料助力基础知识的积累，知识点梳理类、重点归纳资料让孩子对知识掌握更透彻。古诗文文言文专题、名著专题，让孩子深入理解经典。期中期末复习专题帮孩子在考试前高效冲刺，作文提分指导和阅读答题技巧更是提升语文综合素养的关键。
-内容太多，无法一一展示，要是有需要可以私信我预览文件！
-下面给大家罗列一下顶层文件夹的名字，让大家更直观了解资料内容：
-- 七上语文必背内容汇总 - 2025
-- 七上语文基础字词句成语
-- 七上语文每课一练 - 2025
-- 七上语文一课一附 - 2025
-- 七上语文早背晚默写 - 2025
-- 七上语文重点知识归纳总结 - 2025
-- 七上语文单元知识清单 - 2025
-- 七上语文单元检测卷 - 2025
-- 七上语文古诗文 + 文言文训练 - 2025
-- 七上语文必读名著《朝花夕拾》+《西游记》-2025
-- 七上语文月考测试卷 - 2025
-- 七上语文期中复习专题
-- 七上语文期末复习专题
-- 七上语文单元主题阅读 + 理解技巧 - 2025
-- 七上语文作文提分指导 - 2025
-拍下后，百度网盘链接发送，自动发货，标价就是卖价，需要直接拍！让孩子快人一步，轻松学好七年级上册语文！
-</v>
+      <c r="B8" t="str">
+        <v>2025七上语文人教版全套资料473个文件</v>
       </c>
       <c r="C8" t="str">
-        <v>✅ 总共473个文件，内容超全，几乎都是按照课文或者单元编写✅ 预习资料帮孩子在开学前抢占先机，早背晚默资料助力基础知识的积累，知识点梳理类、重点归纳资料让孩子对知识掌握更透彻✅ 古诗文文言文专题、名著专题，让孩子深入理解经典。期中期末复习专题帮孩子在考试前高效冲刺，作文提分指导和阅读答题技巧更是提升语文综合素养的关键✅ 拍下后，百度网盘链接发送，自动发货，标价就是卖价，需要直接拍✅ 让孩子快人一步，轻松学好七年级上册语文✅ 虚拟商品，一经售出概不退换，请谨慎购买</v>
+        <v>✅ 包含473个文件，覆盖预习、复习、知识积累、考试冲刺全场景，助力孩子抢占学习先机✅ 涵盖必背内容、基础字词句、每课一练、早背晚默、重点归纳、单元检测、古诗文训练、名著专题等多类资料✅ 拍下百度网盘自动发货，标价即为卖价，无需等待，快速获取资料虚拟商品，拍下后无法退换，资料仅限学习使用。</v>
       </c>
       <c r="D8" t="str">
-        <v>https://s.coze.cn/t/r5e8tMn35DA/</v>
-      </c>
-    </row>
-    <row r="9" xml:space="preserve">
+        <v>https://s.coze.cn/t/KV-hLagusOA/</v>
+      </c>
+      <c r="E8" t="str">
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.5.1b377e61Ma7Ms3&amp;id=948726934630&amp;categoryId=202036301</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="str">
         <v>977151259449</v>
       </c>
-      <c r="B9" t="str" xml:space="preserve">
-        <v xml:space="preserve">新人教a版高中数学选修必修课件教案，包含必修一二三和选修一二三全套电子版资料。
-专业整理：特聘100名一线特级教师参与整理编撰，更懂课堂！
-内容保障：优质PPT课件，精品教案，学习资料，紧跟教学前沿
-符合课改：符合新课改，教学设计规范标准，轻松应对检查！
-不论是老师备课，还是学生自学亦或是家长辅导，这份资料都是不二之选！
-注意事项：
-①电子资料，百度网盘发货
-②虚拟资料非实物，一经售出不退不换
-③支持百度网盘在线播放
-④标价仅为整理资料的辛苦费
-温馨提示：
-本店资料来源于网络公开渠道，仅供学习交流使用。资料不用于商业用途，仅作学习参考。如涉及侵权，请及时联系删除。
-喜欢的朋友可以直接下单哦～
-</v>
+      <c r="B9" t="str">
+        <v>新人教A版高中数学全套课件教案</v>
       </c>
       <c r="C9" t="str">
-        <v>✅ 特聘100名一线特级教师参与整理编撰，更懂课堂✅ 优质PPT课件，精品教案，学习资料，紧跟教学前沿✅ 符合新课改，教学设计规范标准，轻松应对检查✅ 不论是老师备课，还是学生自学亦或是家长辅导，这份资料都是不二之选✅ 电子资料，百度网盘发货，支持百度网盘在线播放✅ 虚拟资料非实物，一经售出不退不换✅ 标价仅为整理资料的辛苦费✅ 本店资料来源于网络公开渠道，仅供学习交流使用。资料不用于商业用途，仅作学习参考。如涉及侵权，请及时联系删除</v>
+        <v>✅ 特聘100名一线特级教师整理编撰，包含必修一二三和选修一二三全套电子版资料，更懂课堂教学✅ 优质PPT课件、精品教案，紧跟教学前沿，符合新课改，教学设计规范标准，轻松应对备课与检查✅ 适用于老师备课、学生自学、家长辅导，满足多种学习教学场景✅ 百度网盘发货，支持在线播放，标价为整理辛苦费注意事项：电子资料非实物，一经售出不退不换。资料来源于网络公开渠道，仅供学习交流使用，不用于商业用途，如涉及侵权，请及时联系删除。</v>
       </c>
       <c r="D9" t="str">
-        <v>https://s.coze.cn/t/DUxd_A89bWo/</v>
-      </c>
-    </row>
-    <row r="10" xml:space="preserve">
+        <v>https://s.coze.cn/t/Tpk-8uFD06I/</v>
+      </c>
+      <c r="E9" t="str">
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.26.1b377e61Ma7Ms3&amp;id=977151259449&amp;categoryId=202036301</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="str">
         <v>993356819001</v>
       </c>
-      <c r="B10" t="str" xml:space="preserve">
-        <v xml:space="preserve">【自动发货】2025新中特PDF及课后答案复习资料
-新时代中国特色社会主义理论与实践2024＋2021完整电子版复习资料PDF
-主要适用于研究生研一期末政治考试而定制。也适用于本科生，博士生，或者跟这个课程相关的人员。
-本人所用一手资料，资料更多。其他店铺盗取我的资料进行二次加工售卖的，资料内部含有他们自己店铺名称的广告图片或者链接，请大家注意甄别。
-资料更加完整，资料更多，基本涵盖了研究生政治考试所有的新中特复习资料。
-[1]所发文件包含2024和2021新中特复习资料考试总结整理知识点。其中，新中特重点资料文件夹共有5个文件，包含学校老师公布重点的pdf文件。
-[2]另外包括教材课后习题答案，二十大pdf，思考题答案，整理的考试重难点资料，开卷考试资料，某些大牛整理的资料
-[3]包含且不止如下资料
-1. 2024新中特单选题题库＋答案
-2. 2024新中特多选题题库＋答案
-3. 2024新中特课后习题及答案
-4. 2024新中特考试重难点
-5. 2024新中特考试论述题
-6. 2024新中特复习提纲
-7. 2024新中特电子书PDF
-8. 2024新中特复习重点笔记、复习要点、思考题等（补充资料）
-9. 附2021版新中特课件＋电子书＋课后思考题及答案
-10. 下面这两个都有哦
-新时代中国特色社会主义理论与实践PDF
-a.2021版新中特PDF+课后思考题重点及答案
-b.2024版新中特PDF+课后思考题重点及答案
-等等
-需要直接拍下秒发货，发百度网盘和夸克网盘链接，付款后7*24小时自动发送链接，无需等待。</v>
+      <c r="B10" t="str">
+        <v>2025新中特PDF及课后答案复习资料</v>
       </c>
       <c r="C10" t="str">
-        <v>✅ 主要适用于研究生研一期末政治考试而定制，也适用于本科生，博士生，或者跟这个课程相关的人员✅ 本人所用一手资料，资料更多，基本涵盖了研究生政治考试所有的新中特复习资料✅ 所发文件包含2024和2021新中特复习资料考试总结整理知识点，新中特重点资料文件夹共有5个文件，包含学校老师公布重点的pdf文件✅ 另外包括教材课后习题答案，二十大pdf，思考题答案，整理的考试重难点资料，开卷考试资料，某些大牛整理的资料✅ 包含且不止如下资料：2024新中特单选题题库＋答案、2024新中特多选题题库＋答案、2024新中特课后习题及答案、2024新中特考试重难点、2024新中特考试论述题、2024新中特复习提纲、2024新中特电子书PDF、2024新中特复习重点笔记、复习要点、思考题等（补充资料）、附2021版新中特课件＋电子书＋课后思考题及答案、2021版新中特PDF+课后思考题重点及答案、2024版新中特PDF+课后思考题重点及答案等✅ 需要直接拍下秒发货，发百度网盘和夸克网盘链接，付款后7*24小时自动发送链接，无需等待✅ 虚拟商品，一经售出概不退换，请谨慎购买</v>
+        <v>✅ 包含2024和2021新中特复习资料，涵盖知识点总结、题库答案、课后习题答案、考试重难点等，覆盖研究生政治考试复习需求✅ 一手资料，完整无广告，避免其他店铺二次加工的干扰✅ 适用于研究生、本科生、博士生及相关课程学习者，满足不同学习场景✅ 拍下秒发货，百度网盘和夸克网盘双渠道发送，7*24小时自动发送，无需等待虚拟商品，拍下后无法退换，资料仅限学习使用。</v>
       </c>
       <c r="D10" t="str">
-        <v>https://s.coze.cn/t/Xck0XO2Wmb0/</v>
-      </c>
-    </row>
-    <row r="11" xml:space="preserve">
+        <v>https://s.coze.cn/t/N4Vwqra8orI/</v>
+      </c>
+      <c r="E10" t="str">
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.10.1b377e61Ma7Ms3&amp;id=993356819001&amp;categoryId=202036301</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="str">
         <v>937046458029</v>
       </c>
-      <c r="B11" t="str" xml:space="preserve">
-        <v xml:space="preserve">【自动发货】毛概2025版 期末题库 最新版 24h秒发
-是大学老师给的
-有选择题、大题，简答题，有课后习题答案和复习笔记
-全部八章内容</v>
+      <c r="B11" t="str">
+        <v>2025版毛概期末题库，24h秒发</v>
       </c>
       <c r="C11" t="str">
-        <v>✅ 有选择题、大题，简答题，有课后习题答案和复习笔记，全部八章内容✅ 大学老师给的一手资料，更贴合考试要求✅ 24h秒发，无需等待✅ 虚拟商品，一经售出概不退换，请谨慎购买</v>
+        <v>✅ 大学老师提供的最新版毛概题库，包含八章全部内容，有选择题、大题、简答题，附带课后习题答案和复习笔记✅ 24小时自动发货，无需等待，助力期末高效复习虚拟商品，拍下后无法退换，资料仅限学习使用。</v>
       </c>
       <c r="D11" t="str">
-        <v>https://s.coze.cn/t/C8Niw5toYwU/</v>
-      </c>
-    </row>
-    <row r="12" xml:space="preserve">
+        <v>https://s.coze.cn/t/u_Bp4BZlnl0/</v>
+      </c>
+      <c r="E11" t="str">
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.29.1b377e61Ma7Ms3&amp;id=937046458029&amp;categoryId=202036301</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="str">
         <v>903850991084</v>
       </c>
-      <c r="B12" t="str" xml:space="preserve">
-        <v xml:space="preserve">【电网资料】打包出【财会类】国家电网考试电子版资料。
-国网财会类专业包含财务管理、会计类、税务类、审计类、财务类等，具体专业见图。
-【更新】刚更新了25届题库、讲义和模拟卷！
-[1]含泪吐血整理，有多家机构，【独家】筛选并分类【最新】【核心】资料，即拿即用，节省复习时间。
-[2]网课视频、讲义、题库、真题模拟题和笔记，按需复习。更新25届大纲和解析版的企业文化（快速记忆方法），时政已更新到25年1月，含押题题库和重点题库。
-[3]拍前必看：图里的资料都有，需要就拍。
-</v>
+      <c r="B12" t="str">
+        <v>25届国网财会类考试资料，含题库讲义</v>
       </c>
       <c r="C12" t="str">
-        <v>✅ 国网财会类专业包含财务管理、会计类、税务类、审计类、财务类等✅ 刚更新了25届题库、讲义和模拟卷，含泪吐血整理，有多家机构，独家筛选并分类最新核心资料，即拿即用，节省复习时间✅ 网课视频、讲义、题库、真题模拟题和笔记，按需复习。更新25届大纲和解析版的企业文化（快速记忆方法），时政已更新到25年1月，含押题题库和重点题库✅ 图里的资料都有，需要就拍✅ 虚拟商品，一经售出概不退换，请谨慎购买</v>
+        <v>✅ 涵盖财务管理、会计类等财会专业，刚更新25届题库、讲义和模拟卷，资料最新最全✅ 独家筛选分类多家机构核心资料，包含网课视频、讲义、题库、真题模拟题和笔记，节省复习时间✅ 25届大纲和解析版企业文化（附快速记忆方法），时政更新至25年1月，含押题题库和重点题库拍前必看：图里的资料都有，需要就拍。虚拟商品，拍下后无法退换，资料仅限学习使用。</v>
       </c>
       <c r="D12" t="str">
-        <v>https://s.coze.cn/t/hIxqMLIXzwI/</v>
-      </c>
-    </row>
-    <row r="13" xml:space="preserve">
+        <v>https://s.coze.cn/t/b9mOUjJKOtc/</v>
+      </c>
+      <c r="E12" t="str">
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.5.1b377e61Ma7Ms3&amp;id=903850991084&amp;categoryId=202036301</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="str">
         <v>939071072800</v>
       </c>
-      <c r="B13" t="str" xml:space="preserve">
-        <v xml:space="preserve">【非常全面】自考15040《新思想概论》
-资料很全含2504精讲视频、2504串讲、历年真题（更新到最新）、讲义、复习资料！
-发货：拍下速发度盘。
-退换：电子版资料，一经售出，不退不换，敬请谅解！
-赠送：复习资料
-拍下默认自动发本科目全部资料
-全部为高清版，可网盘在线观看！
-格式排版清晰，可直接打印！
-有遗漏或者链接失效请私信我，看到后立即解决！！！
-祝所有考生顺利通关，拿本科证！
-</v>
+      <c r="B13" t="str">
+        <v>自考15040新思想概论，资料超全</v>
       </c>
       <c r="C13" t="str">
-        <v>✅ 资料很全含2504精讲视频、2504串讲、历年真题（更新到最新）、讲义、复习资料✅ 拍下速发度盘，电子版资料，一经售出，不退不换，敬请谅解✅ 赠送复习资料，拍下默认自动发本科目全部资料✅ 全部为高清版，可网盘在线观看，格式排版清晰，可直接打印✅ 有遗漏或者链接失效请私信我，看到后立即解决✅ 祝所有考生顺利通关，拿本科证✅ 虚拟商品，一经售出概不退换，请谨慎购买</v>
+        <v>✅ 包含2504精讲视频、2504串讲、最新历年真题、讲义、复习资料，全方位覆盖自考备考需求✅ 高清版资料，可网盘在线观看，格式排版清晰，支持直接打印✅ 拍下速发度盘，自动发本科目全部资料，还赠送复习资料✅ 电子版资料，一经售出不退不换，如有遗漏或链接失效可私信解决祝所有考生顺利通关，拿下本科证！</v>
       </c>
       <c r="D13" t="str">
-        <v>https://s.coze.cn/t/IG6nL2fgxfM/</v>
-      </c>
-    </row>
-    <row r="14" xml:space="preserve">
+        <v>https://s.coze.cn/t/z2jY7K8vacY/</v>
+      </c>
+      <c r="E13" t="str">
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.28.1b377e61Ma7Ms3&amp;id=939071072800&amp;categoryId=202036301</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="str">
         <v>946001438110</v>
       </c>
-      <c r="B14" t="str" xml:space="preserve">
-        <v xml:space="preserve">25新版《一本小学知识大盘点》电子PDF语文数学英语基本知识点复习一二三四五六年级全国通用
-小学1-6年级知识点全面盘点梳理。适合预习、复习使用，实用性强，性价比高。不分年级、版本，全国通用！
-高清pdf扫描版本，可自行打印！
-扫马看视频讲解，听音频
-2025最新版，不分版本，全国通用
-包含：（3科打包1元）
-语文：小学知识大盘点＋高频必刷题
-数学：小学知识大盘点＋思维导图
-英语：小学知识大盘点＋高频必刷题
-[绿圆]请看清说明，标价可以直接拍！
-[红圆]发百du网盘，链接永久有效，可随时查看转存下载！
-[蓝圆]pdf扫描版，非纸质，自行打印！
-免责申明:本店所有资料版权归原作者和出版社所有，标价仅为自己收集整理的辛苦费，不代表原实物价格。如有侵权，立删。
-</v>
+      <c r="B14" t="str">
+        <v>25新版小学知识大盘点语数英三科</v>
       </c>
       <c r="C14" t="str">
-        <v>✅ 小学1-6年级知识点全面盘点梳理，适合预习、复习使用，实用性强，性价比高，不分年级、版本，全国通用✅ 高清pdf扫描版本，可自行打印，扫马看视频讲解，听音频✅ 2025最新版，不分版本，全国通用✅ 包含：语文：小学知识大盘点＋高频必刷题；数学：小学知识大盘点＋思维导图；英语：小学知识大盘点＋高频必刷题✅ 标价可以直接拍，发百度网盘，链接永久有效，可随时查看转存下载✅ pdf扫描版，非纸质，自行打印✅ 免责申明:本店所有资料版权归原作者和出版社所有，标价仅为自己收集整理的辛苦费，不代表原实物价格。如有侵权，立删✅ 虚拟商品，一经售出概不退换，请谨慎购买</v>
+        <v>✅ 小学1-6年级知识点全面盘点梳理，不分年级、版本，全国通用，适合预习、复习使用✅ 高清pdf扫描版本，可自行打印，扫码看视频讲解、听音频，2025最新版✅ 三科打包1元，语文含小学知识大盘点＋高频必刷题，数学含小学知识大盘点＋思维导图，英语含小学知识大盘点＋高频必刷题✅ 发百度网盘，链接永久有效，可随时查看转存下载免责申明:本店所有资料版权归原作者和出版社所有，标价仅为自己收集整理的辛苦费，不代表原实物价格。如有侵权，立删。</v>
       </c>
       <c r="D14" t="str">
-        <v>https://s.coze.cn/t/ejUQYOrT1Rs/</v>
-      </c>
-    </row>
-    <row r="15" xml:space="preserve">
+        <v>https://s.coze.cn/t/1gYfsb-tiPA/</v>
+      </c>
+      <c r="E14" t="str">
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.8.1b377e61Ma7Ms3&amp;id=946001438110&amp;categoryId=202036301</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="str">
         <v>857227411020</v>
       </c>
-      <c r="B15" t="str" xml:space="preserve">
-        <v xml:space="preserve">【秒发】2026年初级护师历年考试真题库答案解析彩色考点笔记难点资料汇总电子版pdf可下载可打印
-直接拍就行，秒发货，描述的都包含，bai度网盘发
-备考【26年初级护师】的姐妹们可以复习了。
-真题年份：2010-2025年都包含
-（题目与答案分开）
-2025年真题已更新，认准小雅资料，只有我这更新了，答案和题目也都是分开版，方便下载打印做题
-资料包含：
-1.真题【2010-2025年】+答案解析
-2.彩色考点笔记
-3.口诀速记
-4.计算公式
-5.模拟文档题
-6.送高频考题
-具体资料可以看下面图片上的文件夹，描述的都有，全部都发
-直接拍就行，秒发，整理不易，发出不退换，希望理解，记得给个好平哦
-</v>
+      <c r="B15" t="str">
+        <v>26初级护师历年真题，2010-2025年全含</v>
       </c>
       <c r="C15" t="str">
-        <v>✅ 真题年份：2010-2025年都包含，2025年真题已更新，答案和题目也都是分开版，方便下载打印做题✅ 资料包含：真题【2010-2025年】+答案解析、彩色考点笔记、口诀速记、计算公式、模拟文档题、送高频考题✅ 直接拍就行，秒发货，描述的都包含，百度网盘发✅ 整理不易，发出不退换，希望理解，记得给个好评哦✅ 虚拟商品，一经售出概不退换，请谨慎购买</v>
+        <v>✅ 包含2010-2025年初级护师真题及答案解析，2025年真题已更新，题目与答案分开，方便下载打印做题✅ 资料丰富，有彩色考点笔记、口诀速记、计算公式、模拟文档题，还赠送高频考题✅ 拍下秒发百度网盘，可下载可打印，助力26年初级护师备考整理不易，发出不退换，希望理解，记得给个好评。</v>
       </c>
       <c r="D15" t="str">
-        <v>https://s.coze.cn/t/-s8-0kkRCP4/</v>
-      </c>
-    </row>
-    <row r="16" xml:space="preserve">
+        <v>https://s.coze.cn/t/d_szbpW8vzg/</v>
+      </c>
+      <c r="E15" t="str">
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.27.1b377e61Ma7Ms3&amp;id=857227411020&amp;categoryId=202036301</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="str">
         <v>975519024031</v>
       </c>
-      <c r="B16" t="str" xml:space="preserve">
-        <v xml:space="preserve">最新版思想课期末冲刺包！复习笔记 考试题库 习题答案 知识点总结 大一到大三全覆盖
-标价直接拍
-考研政治笔试/考研马理论复试/期末课后习题复习均适用
-包括
-【重点复习笔记】
-2023版思想课重点笔记，期末重点一目了然
-【课后习题答案】
-每个章节的课后习题答案全收录，帮你巩固知识点，查漏补缺
-【题库及答案汇总】
-【知识点总结+思维导图】
-期末知识点和思维导图，大总结让你的复习更有针对性
-</v>
+      <c r="B16" t="str">
+        <v>思想课期末冲刺包，大一到大三全覆盖</v>
       </c>
       <c r="C16" t="str">
-        <v>✅ 包括【重点复习笔记】2023版思想课重点笔记，期末重点一目了然✅ 【课后习题答案】每个章节的课后习题答案全收录，帮你巩固知识点，查漏补缺✅ 【题库及答案汇总】✅ 【知识点总结+思维导图】期末知识点和思维导图，大总结让你的复习更有针对性✅ 标价直接拍✅ 虚拟商品，一经售出概不退换，请谨慎购买</v>
+        <v>✅ 2023版思想课重点笔记，期末重点一目了然，助力期末高效复习✅ 每个章节课后习题答案全收录，巩固知识点，查漏补缺✅ 题库及答案汇总、知识点总结+思维导图，让复习更有针对性✅ 适用于考研政治笔试、考研马理论复试、期末课后习题复习标价直接拍，虚拟商品，拍下后不退不换。</v>
       </c>
       <c r="D16" t="str">
-        <v>https://s.coze.cn/t/gACQSO5sicE/</v>
-      </c>
-    </row>
-    <row r="17" xml:space="preserve">
+        <v>https://s.coze.cn/t/7cpaTYE2BDU/</v>
+      </c>
+      <c r="E16" t="str">
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.17.1b377e61Ma7Ms3&amp;id=975519024031&amp;categoryId=202036301</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="str">
         <v>807129218718</v>
       </c>
-      <c r="B17" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-沪科版初中数学，七到九年级讲义
-讲义按照课本章节整理，每章分为基础版和提高版，两版都有知识点讲解和配套巩固练习。
-适合在校老师课堂知识专题讲解、课外辅导一对一或班课直接使用。
-其中一册为1元，全套5元（送一个中考总复习）。
-需要直接拍，系统会自动发货。
-新教材新题，版权所有，有完整创作时间线，禁止翻卖，资料翻卖会追究。认准正版，根据新教材更新资料。
-</v>
+      <c r="B17" t="str">
+        <v>沪科版初中数学七到九年级讲义</v>
       </c>
       <c r="C17" t="str">
-        <v>✅ 讲义按照课本章节整理，每章分为基础版和提高版，两版都有知识点讲解和配套巩固练习✅ 适合在校老师课堂知识专题讲解、课外辅导一对一或班课直接使用✅ 其中一册为1元，全套5元（送一个中考总复习）✅ 需要直接拍，系统会自动发货✅ 新教材新题，版权所有，有完整创作时间线，禁止翻卖，资料翻卖会追究。认准正版，根据新教材更新资料✅ 虚拟商品，一经售出概不退换，请谨慎购买</v>
+        <v>✅ 讲义按课本章节整理，每章分基础版和提高版，均含知识点讲解与配套巩固练习✅ 适合在校老师课堂专题讲解、课外辅导一对一或班课直接使用✅ 一册1元，全套5元，送中考总复习，系统自动发货新教材新题，版权所有，有完整创作时间线，禁止翻卖，资料翻卖会追究。认准正版，根据新教材更新资料。</v>
       </c>
       <c r="D17" t="str">
-        <v>https://s.coze.cn/t/SZ0ztdI_RvQ/</v>
-      </c>
-    </row>
-    <row r="18" xml:space="preserve">
+        <v>https://s.coze.cn/t/UgEPzNN3fr8/</v>
+      </c>
+      <c r="E17" t="str">
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.4.1b377e61Ma7Ms3&amp;id=807129218718&amp;categoryId=202036301</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="str">
         <v>887267029712</v>
       </c>
-      <c r="B18" t="str" xml:space="preserve">
-        <v xml:space="preserve">黄夫人物理讲义新版旧版➕笔记电子版➕视频
-*拍下发货
-*发 度/夸
-一轮复习 一轮讲义 高一高二 高三复习 选修
-【免责声明】
-本店资源均通过网络等公开合法渠道获取，该资料仅作为阅读交流使用，并无任何商业目的，其版权归作者或出版社所有，本店不对所涉及的版权问题负法律责任。
-如版权方、出版社认为本店行为侵权、请立即通知本店删除物品。 商品所收取的费用，用于本店搜索整理，加工整改资料。
-</v>
+      <c r="B18" t="str">
+        <v>黄夫人物理讲义笔记视频，拍下即发</v>
       </c>
       <c r="C18" t="str">
-        <v>✅ 拍下发货，发度/夸✅ 本店资源均通过网络等公开合法渠道获取，该资料仅作为阅读交流使用，并无任何商业目的，其版权归作者或出版社所有，本店不对所涉及的版权问题负法律责任✅ 如版权方、出版社认为本店行为侵权、请立即通知本店删除物品✅ 商品所收取的费用，用于本店搜索整理，加工整改资料✅ 虚拟商品，一经售出概不退换，请谨慎购买</v>
+        <v>✅ 包含黄夫人物理新版旧版讲义、笔记电子版以及视频，覆盖一轮复习、高一高二高三复习、选修等学习场景✅ 拍下后通过度盘和夸克网盘发货，快速获取优质物理学习资料免责声明：本店资源均通过网络等公开合法渠道获取，该资料仅作为阅读交流使用，并无任何商业目的，其版权归作者或出版社所有，本店不对所涉及的版权问题负法律责任。如版权方、出版社认为本店行为侵权、请立即通知本店删除物品。商品所收取的费用，用于本店搜索整理，加工整改资料。</v>
       </c>
       <c r="D18" t="str">
-        <v>https://s.coze.cn/t/H5fpZE90ImA/</v>
-      </c>
-    </row>
-    <row r="19" xml:space="preserve">
+        <v>https://s.coze.cn/t/HAZPWw8z8-Y/</v>
+      </c>
+      <c r="E18" t="str">
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.15.1b377e61Ma7Ms3&amp;id=948092826007&amp;categoryId=202036301</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="str">
         <v>948092826007</v>
       </c>
-      <c r="B19" t="str" xml:space="preserve">
-        <v xml:space="preserve">2023版马克思主义基本原理PDF电子版，
-高等教育出版社正版教材，
-本科考研政治必备。
-baidu网盘直接发链接，速度超快，其他相关资料也可以咨询我。
-［秒发］
-</v>
+      <c r="B19" t="str">
+        <v>2023版马原PDF，本科考研政治必备</v>
       </c>
       <c r="C19" t="str">
-        <v>✅ baidu网盘直接发链接，速度超快，其他相关资料也可以咨询我✅ 秒发✅ 虚拟商品，一经售出概不退换，请谨慎购买</v>
+        <v>✅ 高等教育出版社正版教材PDF电子版，是本科学习与考研政治复习的必备资料✅ 拍下秒发百度网盘链接，获取速度超快，助力高效备考✅ 其他相关资料可随时咨询，全方位满足学习需求虚拟商品，拍下后不退不换，资料仅限学习使用。</v>
       </c>
       <c r="D19" t="str">
-        <v>https://s.coze.cn/t/Je_wXZMz8eE/</v>
-      </c>
-    </row>
-    <row r="20" xml:space="preserve">
+        <v>https://s.coze.cn/t/9zQ6oYAAubk/</v>
+      </c>
+      <c r="E19" t="str">
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.7.1b377e61Ma7Ms3&amp;id=999178498819&amp;categoryId=201460510</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="str">
         <v>973706589536</v>
       </c>
-      <c r="B20" t="str" xml:space="preserve">
-        <v xml:space="preserve">【非常全面】自考15040《新思想概论》
-资料很全含2504精讲视频、2504串讲、历年真题（更新到最新）、讲义、复习资料！
-发货：拍下速发度盘。
-退换：电子版资料，一经售出，不退不换，敬请谅解！
-赠送：复习资料
-拍下默认自动发本科目全部资料
-全部为高清版，可网盘在线观看！
-格式排版清晰，可直接打印！
-有遗漏或者链接失效请私信我，看到后立即解决！！！
-祝所有考生顺利通关，拿本科证！
-</v>
+      <c r="B20" t="str">
+        <v>自考15040新思想概论，资料超全</v>
       </c>
       <c r="C20" t="str">
-        <v>✅ 资料很全含2504精讲视频、2504串讲、历年真题（更新到最新）、讲义、复习资料✅ 拍下速发度盘，电子版资料，一经售出，不退不换，敬请谅解✅ 赠送复习资料，拍下默认自动发本科目全部资料✅ 全部为高清版，可网盘在线观看，格式排版清晰，可直接打印✅ 有遗漏或者链接失效请私信我，看到后立即解决✅ 祝所有考生顺利通关，拿本科证✅ 虚拟商品，一经售出概不退换，请谨慎购买</v>
+        <v>✅ 包含2504精讲视频、2504串讲、最新历年真题、讲义、复习资料，全方位覆盖自考备考需求✅ 高清版资料，可网盘在线观看，格式排版清晰，支持直接打印✅ 拍下速发度盘，自动发本科目全部资料，还赠送复习资料✅ 电子版资料，一经售出不退不换，如有遗漏或链接失效可私信解决祝所有考生顺利通关，拿下本科证！</v>
       </c>
       <c r="D20" t="str">
-        <v>https://s.coze.cn/t/EQ7ura628Us/</v>
-      </c>
-    </row>
-    <row r="21" xml:space="preserve">
+        <v>https://s.coze.cn/t/mcC6pGBq1Tw/</v>
+      </c>
+      <c r="E20" t="str">
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.23.1b377e61Ma7Ms3&amp;id=973706589536&amp;categoryId=202036301</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="str">
         <v>945296404459</v>
       </c>
-      <c r="B21" t="str" xml:space="preserve">
-        <v xml:space="preserve">【秒发】2025高一高二高三全国各地名校试卷真题库 语文数学英语物理化学生物政治地理历史试卷电子版
-[红圆]详情
-[1]高一：2024.7-2025.7，目前已整理至25年5月，包更新至25年7月。
-[2]高二：2024.7-2025.7，目前已整理至25年5月，包更新至25年7月。
-[3]高三：2024.6-2025.6，目前已整理至25年5月，包更新至25年6月。
-[红圆]高考9科，按月整理，收录各地区名校试卷，掌握最新考试动态，助力高中学习冲刺。
-让你毫不费力就能搞定你想要的名校试卷，
-最重要的是我们为试卷配有详细的答案解析。
-[红圆]标价就是几个年级打包价。每个年级几千套试卷帮你掌握各地考试动态，适合教学工作者研究试题，也适合学生刷题！高中生必备试卷题库。试卷海量，不排除个别无答案，介意勿拍。
-❤️垫子资料，不发快递，如有需要自行打印，24小时自动发货，永久保存，随时打印，方便学习使用。
-❤️价格展示并非文件价值，而是资料整理费用，如有侵权，联系客服删除即可。
-⭕ 渡盘，自动秒发货！
-⭕️借搜TAG：
-教材，教辅，高考资料，高中复习资料，高考复习资料，期末考试资料，资料汇总，期末复习资料，资料总结，高中语文复习资料，高中数学复习资料，高中英语复习资料，高中物理化学生物复习资料，高中政治历史地理复习资料，重点，笔记，题库，知识点归纳，大题总结，资料合集，高考语文模拟卷，高考数学模拟卷，高考英语模拟卷，高考物理模拟卷，高考化学模拟卷，高考生物模拟卷，高考政治模拟卷，高考历史模拟卷，高考地理模拟卷，
-#学习资料教材</v>
+      <c r="B21" t="str">
+        <v>2025高中名校试卷真题库，9科全含</v>
       </c>
       <c r="C21" t="str">
-        <v>✅ 高考9科全覆盖（语数英物化生政史地），按月整理各地名校试卷✅ 高一/高二包更新至2025年7月，高三包更新至2025年6月，目前已整理至25年5月✅ 每个年级几千套试卷，配套详细答案解析，掌握最新考试动态✅ 适合教学工作者研究试题、学生刷题冲刺，高中生必备题库✅ 24小时自动发货，渡盘永久保存，可自行打印，方便学习⚠️ 虚拟资料，不发快递，个别试卷可能无答案，介意勿拍⚠️ 价格为资料整理费用，如有侵权联系删除，售出不退换</v>
+        <v>✅ 高一、高二资料覆盖2024.7-2025.7，已整理至25年5月，包更新至对应时间；高三资料覆盖2024.6-2025.6，已整理至25年5月，包更新至25年6月✅ 高考9科按月整理，收录各地区名校试卷，配详细答案解析，掌握最新考试动态✅ 标价为三个年级打包价，每个年级几千套试卷，适合教学工作者研究试题和学生刷题✅ 24小时自动发渡盘，电子资料永久保存，可自行打印，方便学习使用试卷海量，不排除个别无答案，介意勿拍。价格为资料整理费用，如有侵权，联系客服删除。</v>
       </c>
       <c r="D21" t="str">
-        <v>https://s.coze.cn/t/EzNIkLrKiUU/</v>
+        <v>https://s.coze.cn/t/Td95X_zW8QM/</v>
+      </c>
+      <c r="E21" t="str">
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.14.1b377e61Ma7Ms3&amp;id=945296404459&amp;categoryId=202036301</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>941464310692</v>
+      </c>
+      <c r="B22" t="str">
+        <v>小学英语语法练习题，58页电子版</v>
+      </c>
+      <c r="C22" t="str">
+        <v>✅ 58页电子版练习资料，PDF可直接打印，含语法知识点和专项练习，讲解全面易懂，是巩固语法的优质选择✅ 全国教材通用，适配人教版、外研版、牛津版等多种教材✅ 拍下24小时自动发百度网盘链接，链接永不失效，可随时查看使用虚拟商品，因素材可复制性，一经发货概不退款，不接受退换。</v>
+      </c>
+      <c r="D22" t="str">
+        <v>https://s.coze.cn/t/GyIU2gxyntY/</v>
+      </c>
+      <c r="E22" t="str">
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.3.1b377e61Ma7Ms3&amp;id=941464310692&amp;categoryId=202036301</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>991304162422</v>
+      </c>
+      <c r="B23" t="str">
+        <v>计算机408考研资料合集，持续更新</v>
+      </c>
+      <c r="C23" t="str">
+        <v>✅ 包含408八套卷答案解析、26竟成模拟题及解析、26零壹模拟卷、灰灰考研八套26年模拟题等优质资料✅ 百度网盘发货，完整电子版资料按年份分类整理，方便查找使用✅ 拍下稍等即可获取链接，后续资料会持续更新，助力考研备考虚拟商品，拍下后不退不换，资料仅限学习使用。</v>
+      </c>
+      <c r="D23" t="str">
+        <v>https://s.coze.cn/t/2F5GkX50lIY/</v>
+      </c>
+      <c r="E23" t="str">
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.23.1b377e61Ma7Ms3&amp;id=991304162422&amp;categoryId=202036301</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>974278541118</v>
+      </c>
+      <c r="B24" t="str">
+        <v>高中匠心地理课件全套，人教版</v>
+      </c>
+      <c r="C24" t="str">
+        <v>✅ 包含匠心必修一、二课件，选择性必修一、二、三课件，区域地理课件（中国和世界地理）以及高三复习课件一轮二轮✅ 赠送匠心微专题课件，标价即为打包价，一站式获取优质地理教学资料✅ 适用于高中地理教学备课，助力老师打造精彩课堂特殊商品，不退不换，感兴趣可直接下单。</v>
+      </c>
+      <c r="D24" t="str">
+        <v>https://s.coze.cn/t/oZYPR3nF7kc/</v>
+      </c>
+      <c r="E24" t="str">
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.14.1b377e61Ma7Ms3&amp;id=974278541118&amp;categoryId=202036301</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>953373572384</v>
+      </c>
+      <c r="B25" t="str">
+        <v>曼昆宏观经济学第十十一版全套资料</v>
+      </c>
+      <c r="C25" t="str">
+        <v>✅ 包含宏观经济学第十版、第十一版曼昆pdf笔记、教材、练习题以及课后习题答案，助力期末考试重点复习✅ 标价即拍价，价格市面最低，性价比超高虚拟商品，拍下后不退不换，资料仅限学习使用。</v>
+      </c>
+      <c r="D25" t="str">
+        <v>https://s.coze.cn/t/zQESkpCL80o/</v>
+      </c>
+      <c r="E25" t="str">
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.23.1b377e61Ma7Ms3&amp;id=953373572384&amp;categoryId=202036301</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>947259655001</v>
+      </c>
+      <c r="B26" t="str">
+        <v>2026新高考数学题型全解Word版</v>
+      </c>
+      <c r="C26" t="str">
+        <v>✅ 讲义覆盖高考所有题型，例题和练习题多选自历年新高考真题及各省市优质模拟题，助学生熟悉高考命题风格与难度，适应高考节奏✅ 对真题详细分类解析，梳理数学知识，帮助学生构建完整知识体系，明确复习方向✅ 提供学生版和教师版原版Word，可编辑可打印，适用于高考数学一轮复习高中数学必备资料，助力高考数学复习。</v>
+      </c>
+      <c r="D26" t="str">
+        <v>https://s.coze.cn/t/QXDoL5W8zCw/</v>
+      </c>
+      <c r="E26" t="str">
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.4.1b377e61Ma7Ms3&amp;id=947259655001&amp;categoryId=202036301</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>1002329045198</v>
+      </c>
+      <c r="B27" t="str">
+        <v>思想课期末冲刺包，大一到大三全覆盖</v>
+      </c>
+      <c r="C27" t="str">
+        <v>✅ 包含2023版思想课重点笔记、课后习题答案、题库及答案汇总、知识点总结与思维导图，助力期末冲刺、考研政治笔试和马理论复试✅ 拍下秒发网盘链接，15秒到手，自动发货，无需等待✅ 电子版资料，网盘自动发货，拍下即发，虚拟商品，售出不退不换需要直接拍，细节可私聊咨询。</v>
+      </c>
+      <c r="D27" t="str">
+        <v>https://s.coze.cn/t/CsAM5jrjJYM/</v>
+      </c>
+      <c r="E27" t="str">
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.3.1b377e61Ma7Ms3&amp;id=1002329045198&amp;categoryId=202036301</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>953038530018</v>
+      </c>
+      <c r="B28" t="str">
+        <v>2025新人教版高中政治必背知识点7册</v>
+      </c>
+      <c r="C28" t="str">
+        <v>✅ 高中全年级必修+选修7册知识点梳理，含填空版和背诵版，每单元两份Word文档（挖空版+答案版）✅ 专为新人教版设计，适配高考总复习一轮、二轮备考，快速记忆核心考点✅ 点击“直接刀成”5秒内发百度网盘，电子版资料即拍即得✅ 注意：仅限新人教版课本使用，其他版本勿拍，虚拟商品不退换</v>
+      </c>
+      <c r="D28" t="str">
+        <v>https://s.coze.cn/t/uHV9WF_cGG4/</v>
+      </c>
+      <c r="E28" t="str">
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.13.1b377e61Ma7Ms3&amp;id=953038530018&amp;categoryId=202036301</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>989632758919</v>
+      </c>
+      <c r="B29" t="str">
+        <v>26+25武忠祥选填技巧课 高效提分</v>
+      </c>
+      <c r="C29" t="str">
+        <v>✅ 涵盖26选填技巧课（实时更新）与25完整版选填技巧课，搭配视频板书，满足不同复习节奏需求✅ 包含25武忠祥《解题密码 选填题》练习题详解，攻克选填难题✅ 视频为mp4格式，无需额外播放器，百度网盘、夸克网盘自动发货，便捷获取✅ 武忠祥名师授课，课程质量高，助力考生提升选填答题能力注意：26课程更新较慢，复习进度快的同学可选择25版课程</v>
+      </c>
+      <c r="D29" t="str">
+        <v>https://s.coze.cn/t/M0casKewyfQ/</v>
+      </c>
+      <c r="E29" t="str">
+        <v>https://www.goofish.com/item?spm=a21ybx.search.searchFeedList.20.1b377e61Ma7Ms3&amp;id=989632758919&amp;categoryId=202036301</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E29"/>
   </ignoredErrors>
 </worksheet>
 </file>